--- a/TubesSisrek/pcaProcess/ttCovMatrix.xlsx
+++ b/TubesSisrek/pcaProcess/ttCovMatrix.xlsx
@@ -350,7 +350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="H8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
@@ -358,7 +358,92 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="8" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>103386</v>
+      </c>
+      <c r="B1">
+        <v>-86987</v>
+      </c>
+      <c r="C1">
+        <v>-49345</v>
+      </c>
+      <c r="D1">
+        <v>17635</v>
+      </c>
+      <c r="E1">
+        <v>50100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-86987</v>
+      </c>
+      <c r="B2">
+        <v>74839</v>
+      </c>
+      <c r="C2">
+        <v>42031</v>
+      </c>
+      <c r="D2">
+        <v>-14802</v>
+      </c>
+      <c r="E2">
+        <v>-42553</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-49345</v>
+      </c>
+      <c r="B3">
+        <v>42031</v>
+      </c>
+      <c r="C3">
+        <v>23768</v>
+      </c>
+      <c r="D3">
+        <v>-8389</v>
+      </c>
+      <c r="E3">
+        <v>-24081</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>17635</v>
+      </c>
+      <c r="B4">
+        <v>-14802</v>
+      </c>
+      <c r="C4">
+        <v>-8389</v>
+      </c>
+      <c r="D4">
+        <v>3144</v>
+      </c>
+      <c r="E4">
+        <v>8305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>50100</v>
+      </c>
+      <c r="B5">
+        <v>-42553</v>
+      </c>
+      <c r="C5">
+        <v>-24081</v>
+      </c>
+      <c r="D5">
+        <v>8305</v>
+      </c>
+      <c r="E5">
+        <v>25056</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H8">
         <v>1</v>
       </c>
